--- a/data/trans_camb/P25_5-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_5-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 6,53</t>
+          <t>-2,53; 7,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 5,13</t>
+          <t>-1,42; 8,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 2,02</t>
+          <t>-0,96; 10,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 3,45</t>
+          <t>-7,2; 3,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 2,7</t>
+          <t>-7,39; 3,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 2,9</t>
+          <t>-5,82; 6,9</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 4,11</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-3,31; 4,59</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-2,5; 6,71</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>64,3%</t>
+          <t>50,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>42,42%</t>
+          <t>68,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-22,89%</t>
+          <t>82,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,19%</t>
+          <t>-21,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>-21,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>-3,34%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>8,87%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>25,05%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 274,42</t>
+          <t>-42,58; 266,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,66; 227,25</t>
+          <t>-28,35; 336,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,97; 52,14</t>
+          <t>-24,17; 400,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-47,75; 82,8</t>
+          <t>-62,9; 66,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,84; 65,34</t>
+          <t>-62,77; 68,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-32,04; 68,3</t>
+          <t>-54,6; 112,55</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-44,3; 90,85</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-39,52; 96,04</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-31,95; 135,49</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-4,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>5,27</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-3,44</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,92; 2,79</t>
+          <t>-15,21; 1,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 6,04</t>
+          <t>-9,91; 9,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 2,86</t>
+          <t>-12,48; 5,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 6,33</t>
+          <t>-8,2; 3,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 1,51</t>
+          <t>-6,61; 5,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 4,13</t>
+          <t>-1,97; 22,88</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-9,49; 0,75</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,13; 5,29</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-4,65; 11,04</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-31,07%</t>
+          <t>-50,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-14,85%</t>
+          <t>-0,25%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-22,27%</t>
+          <t>-27,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>-31,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-26,76%</t>
+          <t>-10,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-7,11%</t>
+          <t>74,11%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-41,53%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-3,88%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>17,85%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-71,42; 47,59</t>
+          <t>-87,62; 48,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-67,55; 94,29</t>
+          <t>-69,72; 184,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-61,99; 55,88</t>
+          <t>-80,89; 141,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-53,41; 106,98</t>
+          <t>-79,53; 121,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,39; 25,19</t>
+          <t>-69,69; 144,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,94; 62,39</t>
+          <t>-34,78; 601,44</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-74,36; 20,74</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-56,36; 96,19</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-48,02; 181,39</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>-2,93</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-2,69</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,27</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-2,39</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 5,18</t>
+          <t>-15,26; 10,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,38; 12,59</t>
+          <t>-10,89; 28,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 8,74</t>
+          <t>-16,95; 10,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 11,52</t>
+          <t>-19,33; 12,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 4,11</t>
+          <t>-15,38; 17,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 9,38</t>
+          <t>-18,26; 11,84</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-13,79; 7,75</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-9,44; 16,08</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-13,49; 8,26</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-46,85%</t>
+          <t>-37,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-5,88%</t>
+          <t>46,01%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,75%</t>
+          <t>-24,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>-20,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-24,79%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>-20,37%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-25,11%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>21,21%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-22,33%</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1037,22 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-78,88; 326,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-68,21; 425,79</t>
+          <t>-83,98; 265,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-76,67; 126,97</t>
+          <t>-71,06; 310,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-55,01; 277,53</t>
+          <t>-84,47; 247,72</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-80,04; 175,59</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-63,08; 314,28</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-79,83; 175,68</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>1,68</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 2,81</t>
+          <t>-5,63; 2,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 3,46</t>
+          <t>-3,02; 7,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 1,48</t>
+          <t>-4,34; 5,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 3,49</t>
+          <t>-6,17; 1,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 1,2</t>
+          <t>-5,26; 2,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 2,66</t>
+          <t>-2,84; 9,23</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 1,15</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-3,19; 3,51</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-2,72; 5,35</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,48%</t>
+          <t>-16,1%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>27,47%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-20,54%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>-24,38%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-13,56%</t>
+          <t>-12,07%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>20,16%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-20,98%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>14,73%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-46,29; 53,89</t>
+          <t>-57,81; 71,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,0; 66,35</t>
+          <t>-37,5; 136,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-50,22; 25,21</t>
+          <t>-44,57; 115,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-33,46; 63,91</t>
+          <t>-58,25; 32,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,06; 20,54</t>
+          <t>-49,02; 45,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-26,71; 45,0</t>
+          <t>-33,21; 134,22</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-51,07; 19,31</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-33,74; 57,22</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-30,41; 79,41</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
